--- a/result/9_pred.xlsx
+++ b/result/9_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,914 +495,578 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38600963.81597126</v>
+        <v>38600961.81631468</v>
       </c>
       <c r="B8" t="n">
-        <v>3334809.029833571</v>
+        <v>3334808.992772128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38600911.04910184</v>
+        <v>38600910.04927355</v>
       </c>
       <c r="B9" t="n">
-        <v>3334688.031248905</v>
+        <v>3334688.012718183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38600903.82627378</v>
+        <v>38600907.82558694</v>
       </c>
       <c r="B10" t="n">
-        <v>3334807.917990269</v>
+        <v>3334807.992113156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38600953.81768835</v>
+        <v>38600949.81837519</v>
       </c>
       <c r="B11" t="n">
-        <v>3334808.844526354</v>
+        <v>3334808.770403467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38600964.00127848</v>
+        <v>38600922.04721305</v>
       </c>
       <c r="B12" t="n">
-        <v>3334799.031550657</v>
+        <v>3334688.235086844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38600921.04738475</v>
+        <v>38600962.03868334</v>
       </c>
       <c r="B13" t="n">
-        <v>3334688.216556122</v>
+        <v>3334796.99483263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>38600901.05081893</v>
+        <v>38600898.05133405</v>
       </c>
       <c r="B14" t="n">
-        <v>3334687.845941688</v>
+        <v>3334687.790349523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38600913.82455669</v>
+        <v>38600919.82352644</v>
       </c>
       <c r="B15" t="n">
-        <v>3334808.103297486</v>
+        <v>3334808.214481816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38600910.86379462</v>
+        <v>38600909.82690489</v>
       </c>
       <c r="B16" t="n">
-        <v>3334698.02953182</v>
+        <v>3334700.010657681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38600943.81940544</v>
+        <v>38600889.8286777</v>
       </c>
       <c r="B17" t="n">
-        <v>3334808.659219137</v>
+        <v>3334807.658560165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38600893.82799087</v>
+        <v>38600937.82043569</v>
       </c>
       <c r="B18" t="n">
-        <v>3334807.732683052</v>
+        <v>3334808.548034807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38600964.1865857</v>
+        <v>38600868.05648531</v>
       </c>
       <c r="B19" t="n">
-        <v>3334789.033267742</v>
+        <v>3334687.234427872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38600923.8228396</v>
+        <v>38600934.04515254</v>
       </c>
       <c r="B20" t="n">
-        <v>3334808.288604703</v>
+        <v>3334688.457455504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38600866.05682873</v>
+        <v>38600886.05339456</v>
       </c>
       <c r="B21" t="n">
-        <v>3334687.197366429</v>
+        <v>3334687.567980863</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>38600933.82112253</v>
+        <v>38600962.261052</v>
       </c>
       <c r="B22" t="n">
-        <v>3334808.47391192</v>
+        <v>3334784.996893133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>38600931.04566767</v>
+        <v>38600952.04206179</v>
       </c>
       <c r="B23" t="n">
-        <v>3334688.401863339</v>
+        <v>3334688.791008495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>38600883.82970795</v>
+        <v>38600908.0479556</v>
       </c>
       <c r="B24" t="n">
-        <v>3334807.547375835</v>
+        <v>3334795.994173659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>38600904.011581</v>
+        <v>38600921.82484439</v>
       </c>
       <c r="B25" t="n">
-        <v>3334797.919707355</v>
+        <v>3334700.233026341</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38600891.05253601</v>
+        <v>38600909.60453624</v>
       </c>
       <c r="B26" t="n">
-        <v>3334687.660634471</v>
+        <v>3334712.008597178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>38600954.00299557</v>
+        <v>38600950.04074384</v>
       </c>
       <c r="B27" t="n">
-        <v>3334798.84624344</v>
+        <v>3334796.77246397</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>38600956.04137496</v>
+        <v>38600909.27098324</v>
       </c>
       <c r="B28" t="n">
-        <v>3334688.865131382</v>
+        <v>3334730.005506424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38600876.05511164</v>
+        <v>38600903.04964483</v>
       </c>
       <c r="B29" t="n">
-        <v>3334687.382673646</v>
+        <v>3334741.892261591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>38600910.67848741</v>
+        <v>38600877.94192253</v>
       </c>
       <c r="B30" t="n">
-        <v>3334708.027814734</v>
+        <v>3334801.437221756</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38600920.86207753</v>
+        <v>38600896.05001611</v>
       </c>
       <c r="B31" t="n">
-        <v>3334698.214839037</v>
+        <v>3334795.771804998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>38600941.04395059</v>
+        <v>38600897.8289654</v>
       </c>
       <c r="B32" t="n">
-        <v>3334688.587170556</v>
+        <v>3334699.78828902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>38600900.86551172</v>
+        <v>38600902.82727617</v>
       </c>
       <c r="B33" t="n">
-        <v>3334697.844224602</v>
+        <v>3334753.890201088</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>38600910.30787297</v>
+        <v>38600866.94464201</v>
       </c>
       <c r="B34" t="n">
-        <v>3334728.024380563</v>
+        <v>3334747.224125358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38600899.93897562</v>
+        <v>38600866.05516736</v>
       </c>
       <c r="B35" t="n">
-        <v>3334747.835639174</v>
+        <v>3334795.215883347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38600910.49318019</v>
+        <v>38600920.0458951</v>
       </c>
       <c r="B36" t="n">
-        <v>3334718.026097648</v>
+        <v>3334796.216542319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>38600914.00986391</v>
+        <v>38600890.940521</v>
       </c>
       <c r="B37" t="n">
-        <v>3334798.105014572</v>
+        <v>3334747.668862679</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38600873.92407864</v>
+        <v>38600902.27135452</v>
       </c>
       <c r="B38" t="n">
-        <v>3334802.362927161</v>
+        <v>3334783.885049831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38600964.37189291</v>
+        <v>38600938.04280435</v>
       </c>
       <c r="B39" t="n">
-        <v>3334779.034984828</v>
+        <v>3334796.55009531</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38600905.1234243</v>
+        <v>38600921.60247573</v>
       </c>
       <c r="B40" t="n">
-        <v>3334737.930009868</v>
+        <v>3334712.230965838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38600944.00471266</v>
+        <v>38600921.26892273</v>
       </c>
       <c r="B41" t="n">
-        <v>3334798.660936222</v>
+        <v>3334730.227875084</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>38600894.01329808</v>
+        <v>38600867.83411665</v>
       </c>
       <c r="B42" t="n">
-        <v>3334797.734400137</v>
+        <v>3334699.232367369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38600904.19688822</v>
+        <v>38600962.48342067</v>
       </c>
       <c r="B43" t="n">
-        <v>3334787.92142444</v>
+        <v>3334772.998953636</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>38600864.01844934</v>
+        <v>38600878.9425815</v>
       </c>
       <c r="B44" t="n">
-        <v>3334797.178478486</v>
+        <v>3334747.446494019</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>38600954.18830279</v>
+        <v>38600933.82278389</v>
       </c>
       <c r="B45" t="n">
-        <v>3334788.847960525</v>
+        <v>3334700.455395001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>38600864.94498542</v>
+        <v>38600902.60490751</v>
       </c>
       <c r="B46" t="n">
-        <v>3334747.187063915</v>
+        <v>3334765.888140585</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>38600920.67677032</v>
+        <v>38600963.15052664</v>
       </c>
       <c r="B47" t="n">
-        <v>3334708.213121951</v>
+        <v>3334737.005135144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38600865.87152151</v>
+        <v>38600950.26311251</v>
       </c>
       <c r="B48" t="n">
-        <v>3334697.195649343</v>
+        <v>3334784.774524473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38600930.86036045</v>
+        <v>38600885.8310259</v>
       </c>
       <c r="B49" t="n">
-        <v>3334698.400146253</v>
+        <v>3334699.56592036</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>38600924.00814682</v>
+        <v>38600951.81969313</v>
       </c>
       <c r="B50" t="n">
-        <v>3334798.290321789</v>
+        <v>3334700.788947992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>38600934.00642974</v>
+        <v>38600897.60659674</v>
       </c>
       <c r="B51" t="n">
-        <v>3334798.475629006</v>
+        <v>3334711.786228518</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>38600904.66015626</v>
+        <v>38600914.26929401</v>
       </c>
       <c r="B52" t="n">
-        <v>3334762.925717155</v>
+        <v>3334784.107418492</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>38600890.8672288</v>
+        <v>38600915.04758433</v>
       </c>
       <c r="B53" t="n">
-        <v>3334697.658917385</v>
+        <v>3334742.114630251</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>38600889.94069271</v>
+        <v>38600897.27304374</v>
       </c>
       <c r="B54" t="n">
-        <v>3334747.650331957</v>
+        <v>3334729.783137763</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38600884.01501517</v>
+        <v>38600950.48548117</v>
       </c>
       <c r="B55" t="n">
-        <v>3334797.54909292</v>
+        <v>3334772.776584975</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>38600920.30615589</v>
+        <v>38600884.16326094</v>
       </c>
       <c r="B56" t="n">
-        <v>3334728.20968778</v>
+        <v>3334789.550466589</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>38600904.38219543</v>
+        <v>38600962.70578933</v>
       </c>
       <c r="B57" t="n">
-        <v>3334777.923141526</v>
+        <v>3334761.001014139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>38600900.6802045</v>
+        <v>38600962.92815799</v>
       </c>
       <c r="B58" t="n">
-        <v>3334707.842507517</v>
+        <v>3334749.003074641</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>38600920.4914631</v>
+        <v>38600933.1556779</v>
       </c>
       <c r="B59" t="n">
-        <v>3334718.211404866</v>
+        <v>3334736.449213493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>38600955.85606774</v>
+        <v>38600963.37289531</v>
       </c>
       <c r="B60" t="n">
-        <v>3334698.863414296</v>
+        <v>3334725.007195647</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>38600965.11312179</v>
+        <v>38600867.16701066</v>
       </c>
       <c r="B61" t="n">
-        <v>3334739.04185317</v>
+        <v>3334735.226185861</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>38600874.94326834</v>
+        <v>38600866.72227335</v>
       </c>
       <c r="B62" t="n">
-        <v>3334747.372371132</v>
+        <v>3334759.222064856</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>38600954.37361</v>
+        <v>38600866.27753602</v>
       </c>
       <c r="B63" t="n">
-        <v>3334778.849677611</v>
+        <v>3334783.21794385</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>38600875.86980443</v>
+        <v>38600914.602847</v>
       </c>
       <c r="B64" t="n">
-        <v>3334697.38095656</v>
+        <v>3334766.110509246</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>38600964.55720013</v>
+        <v>38600890.71815234</v>
       </c>
       <c r="B65" t="n">
-        <v>3334769.036701914</v>
+        <v>3334759.666802176</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>38600940.85864337</v>
+        <v>38600951.15258715</v>
       </c>
       <c r="B66" t="n">
-        <v>3334698.58545347</v>
+        <v>3334736.782766484</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>38600914.19517113</v>
+        <v>38600914.82521567</v>
       </c>
       <c r="B67" t="n">
-        <v>3334788.106731657</v>
+        <v>3334754.112569748</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>38600915.12170722</v>
+        <v>38600867.61174799</v>
       </c>
       <c r="B68" t="n">
-        <v>3334738.115317085</v>
+        <v>3334711.230306867</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>38600895.12514138</v>
+        <v>38600885.16391991</v>
       </c>
       <c r="B69" t="n">
-        <v>3334737.744702652</v>
+        <v>3334735.559738852</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>38600900.30959006</v>
+        <v>38600933.60041522</v>
       </c>
       <c r="B70" t="n">
-        <v>3334727.839073346</v>
+        <v>3334712.453334499</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>38600894.1986053</v>
+        <v>38600957.59629422</v>
       </c>
       <c r="B71" t="n">
-        <v>3334787.736117223</v>
+        <v>3334712.898071819</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38600909.93725854</v>
+        <v>38600938.26517301</v>
       </c>
       <c r="B72" t="n">
-        <v>3334748.020946391</v>
+        <v>3334784.552155812</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>38600900.49489728</v>
+        <v>38600926.26723351</v>
       </c>
       <c r="B73" t="n">
-        <v>3334717.840790431</v>
+        <v>3334784.329787152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38600944.19001988</v>
+        <v>38600866.49990468</v>
       </c>
       <c r="B74" t="n">
-        <v>3334788.662653308</v>
+        <v>3334771.220004353</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38600864.20375656</v>
+        <v>38600890.38459935</v>
       </c>
       <c r="B75" t="n">
-        <v>3334787.180195572</v>
+        <v>3334777.663711422</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38600874.10938586</v>
+        <v>38600933.37804656</v>
       </c>
       <c r="B76" t="n">
-        <v>3334792.364644246</v>
+        <v>3334724.451273996</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38600965.298429</v>
+        <v>38600878.72021285</v>
       </c>
       <c r="B77" t="n">
-        <v>3334729.043570256</v>
+        <v>3334759.444433516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>38600865.13029264</v>
+        <v>38600885.60865724</v>
       </c>
       <c r="B78" t="n">
-        <v>3334737.188781001</v>
+        <v>3334711.563859857</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38600894.75452695</v>
+        <v>38600867.38937932</v>
       </c>
       <c r="B79" t="n">
-        <v>3334757.74126848</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>38600864.75967821</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3334757.185346829</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>38600964.92781457</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3334749.040136085</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>38600930.67505324</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3334708.398429168</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>38600865.68621429</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3334707.193932258</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>38600960.66990198</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3334708.954350819</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>38600964.74250735</v>
-      </c>
-      <c r="B85" t="n">
-        <v>3334759.038418999</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>38600930.2117852</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3334733.394136454</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>38600955.11483887</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3334738.856545953</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>38600914.65843917</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3334763.111024371</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>38600890.68192158</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3334707.6572003</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>38600924.19345404</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3334788.292038874</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>38600914.38047834</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3334778.108448743</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>38600934.19173696</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3334788.477346091</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>38600885.12685847</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3334737.559395434</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>38600954.55891722</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3334768.851394697</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>38600940.1174145</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3334738.578585128</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>38600884.20032239</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3334787.550810006</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>38600894.38391252</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3334777.737834309</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>38600875.12857556</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3334737.374088218</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>38600894.56921974</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3334767.739551394</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>38600864.38906378</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3334777.181912658</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>38600930.48974602</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3334718.396712082</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>38600864.57437099</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3334767.183629743</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>38600960.48459476</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3334718.952633733</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>38600884.75624403</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3334757.555961263</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>38600944.37532709</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3334778.664370394</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>38600874.75796112</v>
-      </c>
-      <c r="B106" t="n">
-        <v>3334757.370654046</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>38600865.31559986</v>
-      </c>
-      <c r="B107" t="n">
-        <v>3334727.190498086</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>38600875.68449721</v>
-      </c>
-      <c r="B108" t="n">
-        <v>3334707.379239474</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>38600865.50090708</v>
-      </c>
-      <c r="B109" t="n">
-        <v>3334717.192215172</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>38600944.56063431</v>
-      </c>
-      <c r="B110" t="n">
-        <v>3334768.666087479</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>38600940.67333615</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3334708.583736385</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>38600950.67161907</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3334708.769043602</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>38600925.02733652</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3334743.29976576</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>38600890.31130715</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3334727.653766129</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>38600955.30014609</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3334728.858263039</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>38600890.49661437</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3334717.655483214</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>38600874.29469308</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3334782.366361332</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>38600919.84288785</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3334753.205395065</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>38600954.92953166</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3334748.854828868</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>38600924.65672208</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3334763.296331588</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>38600954.74422444</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3334758.853111782</v>
+        <v>3334723.228246364</v>
       </c>
     </row>
   </sheetData>
